--- a/data/DataForFigShare.xlsx
+++ b/data/DataForFigShare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/704939774605efb9/Coding Projects/Gaea Conservation Network/ECCC/birds_grenada_mangroves/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{4927535E-B27C-4347-BCF1-87D1D283B8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE970AB-1FDE-CD49-9600-EEC933810B54}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{4927535E-B27C-4347-BCF1-87D1D283B8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35E9490-8BB7-0C43-B6FC-5D3B06C84181}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" activeTab="2" xr2:uid="{A2B71960-F7D4-E24C-A7F3-282943FE8B1D}"/>
+    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" activeTab="4" xr2:uid="{A2B71960-F7D4-E24C-A7F3-282943FE8B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bird Abundance" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="Stable Isotopes" sheetId="4" r:id="rId6"/>
     <sheet name="Mammals" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Mammals!$A$1:$G$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Stable Isotopes'!$A$1:$E$29</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4414,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CFDA4D-6C5E-784C-9E30-9CBDACC037B4}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -9864,8 +9868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDE431B-BD81-F743-9F84-31E15D19E968}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10488,7 +10492,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10990,6 +10994,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E29" xr:uid="{E2316809-D6F4-164A-8FA3-C81D7D310D77}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10999,7 +11004,7 @@
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:G523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11030,13 +11035,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C2" s="9">
-        <v>44086</v>
+        <v>44091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11048,19 +11053,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C3" s="9">
-        <v>44087</v>
+        <v>44093</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -11072,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -11084,7 +11089,7 @@
         <v>213</v>
       </c>
       <c r="C4" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -11108,7 +11113,7 @@
         <v>213</v>
       </c>
       <c r="C5" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11132,7 +11137,7 @@
         <v>213</v>
       </c>
       <c r="C6" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11156,7 +11161,7 @@
         <v>213</v>
       </c>
       <c r="C7" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11180,7 +11185,7 @@
         <v>213</v>
       </c>
       <c r="C8" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -11204,7 +11209,7 @@
         <v>213</v>
       </c>
       <c r="C9" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -11228,7 +11233,7 @@
         <v>213</v>
       </c>
       <c r="C10" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -11252,7 +11257,7 @@
         <v>213</v>
       </c>
       <c r="C11" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11276,7 +11281,7 @@
         <v>213</v>
       </c>
       <c r="C12" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11300,7 +11305,7 @@
         <v>213</v>
       </c>
       <c r="C13" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11324,7 +11329,7 @@
         <v>213</v>
       </c>
       <c r="C14" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11348,7 +11353,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11372,7 +11377,7 @@
         <v>213</v>
       </c>
       <c r="C16" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -11396,7 +11401,7 @@
         <v>213</v>
       </c>
       <c r="C17" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -11420,7 +11425,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -11444,7 +11449,7 @@
         <v>213</v>
       </c>
       <c r="C19" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11468,10 +11473,10 @@
         <v>213</v>
       </c>
       <c r="C20" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -11492,7 +11497,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -11516,7 +11521,7 @@
         <v>213</v>
       </c>
       <c r="C22" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11540,7 +11545,7 @@
         <v>213</v>
       </c>
       <c r="C23" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -11564,7 +11569,7 @@
         <v>213</v>
       </c>
       <c r="C24" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -11588,7 +11593,7 @@
         <v>213</v>
       </c>
       <c r="C25" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -11612,7 +11617,7 @@
         <v>213</v>
       </c>
       <c r="C26" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -11636,7 +11641,7 @@
         <v>213</v>
       </c>
       <c r="C27" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -11660,7 +11665,7 @@
         <v>213</v>
       </c>
       <c r="C28" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -11684,7 +11689,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -11708,7 +11713,7 @@
         <v>213</v>
       </c>
       <c r="C30" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -11729,10 +11734,10 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -11753,10 +11758,10 @@
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -11780,7 +11785,7 @@
         <v>214</v>
       </c>
       <c r="C33" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -11804,7 +11809,7 @@
         <v>214</v>
       </c>
       <c r="C34" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -11828,7 +11833,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -11852,7 +11857,7 @@
         <v>214</v>
       </c>
       <c r="C36" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -11876,7 +11881,7 @@
         <v>214</v>
       </c>
       <c r="C37" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -11900,7 +11905,7 @@
         <v>214</v>
       </c>
       <c r="C38" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -11924,7 +11929,7 @@
         <v>214</v>
       </c>
       <c r="C39" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -11948,7 +11953,7 @@
         <v>214</v>
       </c>
       <c r="C40" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -11972,7 +11977,7 @@
         <v>214</v>
       </c>
       <c r="C41" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -11996,7 +12001,7 @@
         <v>214</v>
       </c>
       <c r="C42" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -12020,7 +12025,7 @@
         <v>214</v>
       </c>
       <c r="C43" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -12044,7 +12049,7 @@
         <v>214</v>
       </c>
       <c r="C44" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -12068,7 +12073,7 @@
         <v>214</v>
       </c>
       <c r="C45" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -12092,7 +12097,7 @@
         <v>214</v>
       </c>
       <c r="C46" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -12116,10 +12121,10 @@
         <v>214</v>
       </c>
       <c r="C47" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -12140,10 +12145,10 @@
         <v>214</v>
       </c>
       <c r="C48" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -12164,10 +12169,10 @@
         <v>214</v>
       </c>
       <c r="C49" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -12188,7 +12193,7 @@
         <v>214</v>
       </c>
       <c r="C50" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -12212,7 +12217,7 @@
         <v>214</v>
       </c>
       <c r="C51" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -12236,10 +12241,10 @@
         <v>214</v>
       </c>
       <c r="C52" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -12260,7 +12265,7 @@
         <v>214</v>
       </c>
       <c r="C53" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -12284,10 +12289,10 @@
         <v>214</v>
       </c>
       <c r="C54" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -12308,7 +12313,7 @@
         <v>214</v>
       </c>
       <c r="C55" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -12332,7 +12337,7 @@
         <v>214</v>
       </c>
       <c r="C56" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -12356,10 +12361,10 @@
         <v>214</v>
       </c>
       <c r="C57" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -12380,7 +12385,7 @@
         <v>214</v>
       </c>
       <c r="C58" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -12404,10 +12409,10 @@
         <v>214</v>
       </c>
       <c r="C59" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -12425,13 +12430,13 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C60" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -12449,13 +12454,13 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C61" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -12476,7 +12481,7 @@
         <v>212</v>
       </c>
       <c r="C62" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -12500,7 +12505,7 @@
         <v>212</v>
       </c>
       <c r="C63" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -12524,7 +12529,7 @@
         <v>212</v>
       </c>
       <c r="C64" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -12548,7 +12553,7 @@
         <v>212</v>
       </c>
       <c r="C65" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -12572,7 +12577,7 @@
         <v>212</v>
       </c>
       <c r="C66" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -12596,7 +12601,7 @@
         <v>212</v>
       </c>
       <c r="C67" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -12620,7 +12625,7 @@
         <v>212</v>
       </c>
       <c r="C68" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -12644,7 +12649,7 @@
         <v>212</v>
       </c>
       <c r="C69" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -12668,7 +12673,7 @@
         <v>212</v>
       </c>
       <c r="C70" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -12692,7 +12697,7 @@
         <v>212</v>
       </c>
       <c r="C71" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -12716,7 +12721,7 @@
         <v>212</v>
       </c>
       <c r="C72" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -12740,7 +12745,7 @@
         <v>212</v>
       </c>
       <c r="C73" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -12764,7 +12769,7 @@
         <v>212</v>
       </c>
       <c r="C74" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -12788,10 +12793,10 @@
         <v>212</v>
       </c>
       <c r="C75" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -12812,10 +12817,10 @@
         <v>212</v>
       </c>
       <c r="C76" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -12836,10 +12841,10 @@
         <v>212</v>
       </c>
       <c r="C77" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -12860,10 +12865,10 @@
         <v>212</v>
       </c>
       <c r="C78" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -12884,7 +12889,7 @@
         <v>212</v>
       </c>
       <c r="C79" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -12908,10 +12913,10 @@
         <v>212</v>
       </c>
       <c r="C80" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -12932,7 +12937,7 @@
         <v>212</v>
       </c>
       <c r="C81" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -12956,10 +12961,10 @@
         <v>212</v>
       </c>
       <c r="C82" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -12980,7 +12985,7 @@
         <v>212</v>
       </c>
       <c r="C83" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -13004,7 +13009,7 @@
         <v>212</v>
       </c>
       <c r="C84" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -13028,7 +13033,7 @@
         <v>212</v>
       </c>
       <c r="C85" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -13052,7 +13057,7 @@
         <v>212</v>
       </c>
       <c r="C86" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -13076,7 +13081,7 @@
         <v>212</v>
       </c>
       <c r="C87" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -13100,7 +13105,7 @@
         <v>212</v>
       </c>
       <c r="C88" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -13121,10 +13126,10 @@
         <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C89" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -13145,10 +13150,10 @@
         <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C90" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -13172,7 +13177,7 @@
         <v>204</v>
       </c>
       <c r="C91" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -13196,7 +13201,7 @@
         <v>204</v>
       </c>
       <c r="C92" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -13220,7 +13225,7 @@
         <v>204</v>
       </c>
       <c r="C93" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -13244,7 +13249,7 @@
         <v>204</v>
       </c>
       <c r="C94" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -13268,7 +13273,7 @@
         <v>204</v>
       </c>
       <c r="C95" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -13292,7 +13297,7 @@
         <v>204</v>
       </c>
       <c r="C96" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -13316,7 +13321,7 @@
         <v>204</v>
       </c>
       <c r="C97" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13340,7 +13345,7 @@
         <v>204</v>
       </c>
       <c r="C98" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13364,7 +13369,7 @@
         <v>204</v>
       </c>
       <c r="C99" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13388,7 +13393,7 @@
         <v>204</v>
       </c>
       <c r="C100" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13411,7 +13416,7 @@
         <v>204</v>
       </c>
       <c r="C101" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13434,7 +13439,7 @@
         <v>204</v>
       </c>
       <c r="C102" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13457,7 +13462,7 @@
         <v>204</v>
       </c>
       <c r="C103" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13480,7 +13485,7 @@
         <v>204</v>
       </c>
       <c r="C104" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13503,7 +13508,7 @@
         <v>204</v>
       </c>
       <c r="C105" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13526,7 +13531,7 @@
         <v>204</v>
       </c>
       <c r="C106" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13549,7 +13554,7 @@
         <v>204</v>
       </c>
       <c r="C107" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13572,7 +13577,7 @@
         <v>204</v>
       </c>
       <c r="C108" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13595,7 +13600,7 @@
         <v>204</v>
       </c>
       <c r="C109" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -13618,7 +13623,7 @@
         <v>204</v>
       </c>
       <c r="C110" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -13641,7 +13646,7 @@
         <v>204</v>
       </c>
       <c r="C111" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -13664,7 +13669,7 @@
         <v>204</v>
       </c>
       <c r="C112" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13687,7 +13692,7 @@
         <v>204</v>
       </c>
       <c r="C113" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13710,7 +13715,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -13733,7 +13738,7 @@
         <v>204</v>
       </c>
       <c r="C115" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -13756,7 +13761,7 @@
         <v>204</v>
       </c>
       <c r="C116" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -13779,7 +13784,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -13799,10 +13804,10 @@
         <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C118" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -13822,10 +13827,10 @@
         <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C119" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -13848,7 +13853,7 @@
         <v>205</v>
       </c>
       <c r="C120" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -13871,7 +13876,7 @@
         <v>205</v>
       </c>
       <c r="C121" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -13894,7 +13899,7 @@
         <v>205</v>
       </c>
       <c r="C122" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -13917,7 +13922,7 @@
         <v>205</v>
       </c>
       <c r="C123" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -13940,7 +13945,7 @@
         <v>205</v>
       </c>
       <c r="C124" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -13963,7 +13968,7 @@
         <v>205</v>
       </c>
       <c r="C125" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -13986,7 +13991,7 @@
         <v>205</v>
       </c>
       <c r="C126" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -14009,7 +14014,7 @@
         <v>205</v>
       </c>
       <c r="C127" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -14032,7 +14037,7 @@
         <v>205</v>
       </c>
       <c r="C128" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -14055,7 +14060,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -14078,7 +14083,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -14101,7 +14106,7 @@
         <v>205</v>
       </c>
       <c r="C131" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -14124,7 +14129,7 @@
         <v>205</v>
       </c>
       <c r="C132" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -14147,7 +14152,7 @@
         <v>205</v>
       </c>
       <c r="C133" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -14170,7 +14175,7 @@
         <v>205</v>
       </c>
       <c r="C134" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -14193,7 +14198,7 @@
         <v>205</v>
       </c>
       <c r="C135" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -14216,7 +14221,7 @@
         <v>205</v>
       </c>
       <c r="C136" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -14239,7 +14244,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -14262,7 +14267,7 @@
         <v>205</v>
       </c>
       <c r="C138" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -14285,7 +14290,7 @@
         <v>205</v>
       </c>
       <c r="C139" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -14308,7 +14313,7 @@
         <v>205</v>
       </c>
       <c r="C140" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -14331,7 +14336,7 @@
         <v>205</v>
       </c>
       <c r="C141" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -14354,7 +14359,7 @@
         <v>205</v>
       </c>
       <c r="C142" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -14377,7 +14382,7 @@
         <v>205</v>
       </c>
       <c r="C143" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -14400,7 +14405,7 @@
         <v>205</v>
       </c>
       <c r="C144" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -14423,7 +14428,7 @@
         <v>205</v>
       </c>
       <c r="C145" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -14446,7 +14451,7 @@
         <v>205</v>
       </c>
       <c r="C146" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -14466,10 +14471,10 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C147" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -14489,10 +14494,10 @@
         <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C148" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -14515,7 +14520,7 @@
         <v>208</v>
       </c>
       <c r="C149" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -14538,7 +14543,7 @@
         <v>208</v>
       </c>
       <c r="C150" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -14561,7 +14566,7 @@
         <v>208</v>
       </c>
       <c r="C151" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -14584,7 +14589,7 @@
         <v>208</v>
       </c>
       <c r="C152" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -14607,7 +14612,7 @@
         <v>208</v>
       </c>
       <c r="C153" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -14630,7 +14635,7 @@
         <v>208</v>
       </c>
       <c r="C154" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -14653,7 +14658,7 @@
         <v>208</v>
       </c>
       <c r="C155" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -14676,7 +14681,7 @@
         <v>208</v>
       </c>
       <c r="C156" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -14699,7 +14704,7 @@
         <v>208</v>
       </c>
       <c r="C157" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -14722,7 +14727,7 @@
         <v>208</v>
       </c>
       <c r="C158" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -14745,7 +14750,7 @@
         <v>208</v>
       </c>
       <c r="C159" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -14768,7 +14773,7 @@
         <v>208</v>
       </c>
       <c r="C160" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -14791,7 +14796,7 @@
         <v>208</v>
       </c>
       <c r="C161" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -14814,7 +14819,7 @@
         <v>208</v>
       </c>
       <c r="C162" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -14837,7 +14842,7 @@
         <v>208</v>
       </c>
       <c r="C163" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -14860,7 +14865,7 @@
         <v>208</v>
       </c>
       <c r="C164" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -14883,7 +14888,7 @@
         <v>208</v>
       </c>
       <c r="C165" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -14906,7 +14911,7 @@
         <v>208</v>
       </c>
       <c r="C166" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -14929,7 +14934,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -14952,7 +14957,7 @@
         <v>208</v>
       </c>
       <c r="C168" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -14975,7 +14980,7 @@
         <v>208</v>
       </c>
       <c r="C169" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -14998,7 +15003,7 @@
         <v>208</v>
       </c>
       <c r="C170" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -15021,7 +15026,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -15044,7 +15049,7 @@
         <v>208</v>
       </c>
       <c r="C172" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -15067,7 +15072,7 @@
         <v>208</v>
       </c>
       <c r="C173" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -15090,7 +15095,7 @@
         <v>208</v>
       </c>
       <c r="C174" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -15113,7 +15118,7 @@
         <v>208</v>
       </c>
       <c r="C175" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -15130,13 +15135,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C176" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -15153,13 +15158,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C177" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -15182,7 +15187,7 @@
         <v>213</v>
       </c>
       <c r="C178" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -15205,7 +15210,7 @@
         <v>213</v>
       </c>
       <c r="C179" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -15228,7 +15233,7 @@
         <v>213</v>
       </c>
       <c r="C180" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -15251,7 +15256,7 @@
         <v>213</v>
       </c>
       <c r="C181" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -15274,7 +15279,7 @@
         <v>213</v>
       </c>
       <c r="C182" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -15297,7 +15302,7 @@
         <v>213</v>
       </c>
       <c r="C183" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -15320,7 +15325,7 @@
         <v>213</v>
       </c>
       <c r="C184" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -15343,7 +15348,7 @@
         <v>213</v>
       </c>
       <c r="C185" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -15366,7 +15371,7 @@
         <v>213</v>
       </c>
       <c r="C186" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -15389,7 +15394,7 @@
         <v>213</v>
       </c>
       <c r="C187" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -15412,7 +15417,7 @@
         <v>213</v>
       </c>
       <c r="C188" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -15435,7 +15440,7 @@
         <v>213</v>
       </c>
       <c r="C189" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -15458,7 +15463,7 @@
         <v>213</v>
       </c>
       <c r="C190" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -15481,7 +15486,7 @@
         <v>213</v>
       </c>
       <c r="C191" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -15504,7 +15509,7 @@
         <v>213</v>
       </c>
       <c r="C192" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -15527,7 +15532,7 @@
         <v>213</v>
       </c>
       <c r="C193" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -15550,7 +15555,7 @@
         <v>213</v>
       </c>
       <c r="C194" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -15573,7 +15578,7 @@
         <v>213</v>
       </c>
       <c r="C195" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -15596,7 +15601,7 @@
         <v>213</v>
       </c>
       <c r="C196" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -15619,7 +15624,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -15642,7 +15647,7 @@
         <v>213</v>
       </c>
       <c r="C198" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -15665,7 +15670,7 @@
         <v>213</v>
       </c>
       <c r="C199" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -15688,7 +15693,7 @@
         <v>213</v>
       </c>
       <c r="C200" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -15711,7 +15716,7 @@
         <v>213</v>
       </c>
       <c r="C201" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -15734,7 +15739,7 @@
         <v>213</v>
       </c>
       <c r="C202" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -15757,7 +15762,7 @@
         <v>213</v>
       </c>
       <c r="C203" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -15780,7 +15785,7 @@
         <v>213</v>
       </c>
       <c r="C204" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -15800,10 +15805,10 @@
         <v>78</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -15823,10 +15828,10 @@
         <v>78</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -15849,7 +15854,7 @@
         <v>214</v>
       </c>
       <c r="C207" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -15872,7 +15877,7 @@
         <v>214</v>
       </c>
       <c r="C208" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -15895,7 +15900,7 @@
         <v>214</v>
       </c>
       <c r="C209" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -15918,7 +15923,7 @@
         <v>214</v>
       </c>
       <c r="C210" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -15941,7 +15946,7 @@
         <v>214</v>
       </c>
       <c r="C211" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -15964,7 +15969,7 @@
         <v>214</v>
       </c>
       <c r="C212" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -15987,7 +15992,7 @@
         <v>214</v>
       </c>
       <c r="C213" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -16010,7 +16015,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -16033,7 +16038,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -16056,7 +16061,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -16079,7 +16084,7 @@
         <v>214</v>
       </c>
       <c r="C217" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -16102,7 +16107,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -16125,7 +16130,7 @@
         <v>214</v>
       </c>
       <c r="C219" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -16148,7 +16153,7 @@
         <v>214</v>
       </c>
       <c r="C220" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -16171,7 +16176,7 @@
         <v>214</v>
       </c>
       <c r="C221" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -16194,7 +16199,7 @@
         <v>214</v>
       </c>
       <c r="C222" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -16217,7 +16222,7 @@
         <v>214</v>
       </c>
       <c r="C223" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -16240,7 +16245,7 @@
         <v>214</v>
       </c>
       <c r="C224" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -16263,7 +16268,7 @@
         <v>214</v>
       </c>
       <c r="C225" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -16286,7 +16291,7 @@
         <v>214</v>
       </c>
       <c r="C226" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -16309,7 +16314,7 @@
         <v>214</v>
       </c>
       <c r="C227" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -16332,7 +16337,7 @@
         <v>214</v>
       </c>
       <c r="C228" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -16355,7 +16360,7 @@
         <v>214</v>
       </c>
       <c r="C229" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -16378,7 +16383,7 @@
         <v>214</v>
       </c>
       <c r="C230" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -16401,7 +16406,7 @@
         <v>214</v>
       </c>
       <c r="C231" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -16424,7 +16429,7 @@
         <v>214</v>
       </c>
       <c r="C232" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -16447,7 +16452,7 @@
         <v>214</v>
       </c>
       <c r="C233" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -16467,10 +16472,10 @@
         <v>78</v>
       </c>
       <c r="B234" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C234" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -16490,10 +16495,10 @@
         <v>78</v>
       </c>
       <c r="B235" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C235" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -16516,7 +16521,7 @@
         <v>212</v>
       </c>
       <c r="C236" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -16539,7 +16544,7 @@
         <v>212</v>
       </c>
       <c r="C237" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -16562,7 +16567,7 @@
         <v>212</v>
       </c>
       <c r="C238" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -16585,7 +16590,7 @@
         <v>212</v>
       </c>
       <c r="C239" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -16608,7 +16613,7 @@
         <v>212</v>
       </c>
       <c r="C240" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -16631,7 +16636,7 @@
         <v>212</v>
       </c>
       <c r="C241" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -16654,7 +16659,7 @@
         <v>212</v>
       </c>
       <c r="C242" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -16677,7 +16682,7 @@
         <v>212</v>
       </c>
       <c r="C243" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -16700,7 +16705,7 @@
         <v>212</v>
       </c>
       <c r="C244" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -16723,7 +16728,7 @@
         <v>212</v>
       </c>
       <c r="C245" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -16746,7 +16751,7 @@
         <v>212</v>
       </c>
       <c r="C246" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -16769,7 +16774,7 @@
         <v>212</v>
       </c>
       <c r="C247" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -16792,7 +16797,7 @@
         <v>212</v>
       </c>
       <c r="C248" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -16815,7 +16820,7 @@
         <v>212</v>
       </c>
       <c r="C249" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -16838,7 +16843,7 @@
         <v>212</v>
       </c>
       <c r="C250" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -16861,7 +16866,7 @@
         <v>212</v>
       </c>
       <c r="C251" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -16884,7 +16889,7 @@
         <v>212</v>
       </c>
       <c r="C252" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -16907,7 +16912,7 @@
         <v>212</v>
       </c>
       <c r="C253" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -16930,7 +16935,7 @@
         <v>212</v>
       </c>
       <c r="C254" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -16953,7 +16958,7 @@
         <v>212</v>
       </c>
       <c r="C255" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -16976,7 +16981,7 @@
         <v>212</v>
       </c>
       <c r="C256" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -16999,7 +17004,7 @@
         <v>212</v>
       </c>
       <c r="C257" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -17022,7 +17027,7 @@
         <v>212</v>
       </c>
       <c r="C258" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -17045,7 +17050,7 @@
         <v>212</v>
       </c>
       <c r="C259" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -17068,7 +17073,7 @@
         <v>212</v>
       </c>
       <c r="C260" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -17091,7 +17096,7 @@
         <v>212</v>
       </c>
       <c r="C261" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -17114,7 +17119,7 @@
         <v>212</v>
       </c>
       <c r="C262" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -17134,10 +17139,10 @@
         <v>78</v>
       </c>
       <c r="B263" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C263" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -17157,10 +17162,10 @@
         <v>78</v>
       </c>
       <c r="B264" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C264" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -17183,10 +17188,10 @@
         <v>204</v>
       </c>
       <c r="C265" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -17206,13 +17211,13 @@
         <v>204</v>
       </c>
       <c r="C266" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
         <v>1</v>
-      </c>
-      <c r="E266">
-        <v>0</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -17229,10 +17234,10 @@
         <v>204</v>
       </c>
       <c r="C267" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -17252,10 +17257,10 @@
         <v>204</v>
       </c>
       <c r="C268" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -17275,7 +17280,7 @@
         <v>204</v>
       </c>
       <c r="C269" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -17298,7 +17303,7 @@
         <v>204</v>
       </c>
       <c r="C270" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -17321,10 +17326,10 @@
         <v>204</v>
       </c>
       <c r="C271" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -17344,10 +17349,10 @@
         <v>204</v>
       </c>
       <c r="C272" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -17367,7 +17372,7 @@
         <v>204</v>
       </c>
       <c r="C273" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -17390,10 +17395,10 @@
         <v>204</v>
       </c>
       <c r="C274" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -17413,10 +17418,10 @@
         <v>204</v>
       </c>
       <c r="C275" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -17436,7 +17441,7 @@
         <v>204</v>
       </c>
       <c r="C276" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -17459,10 +17464,10 @@
         <v>204</v>
       </c>
       <c r="C277" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -17482,7 +17487,7 @@
         <v>204</v>
       </c>
       <c r="C278" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -17505,7 +17510,7 @@
         <v>204</v>
       </c>
       <c r="C279" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -17528,7 +17533,7 @@
         <v>204</v>
       </c>
       <c r="C280" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -17551,7 +17556,7 @@
         <v>204</v>
       </c>
       <c r="C281" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -17574,7 +17579,7 @@
         <v>204</v>
       </c>
       <c r="C282" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -17597,7 +17602,7 @@
         <v>204</v>
       </c>
       <c r="C283" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -17620,7 +17625,7 @@
         <v>204</v>
       </c>
       <c r="C284" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -17643,7 +17648,7 @@
         <v>204</v>
       </c>
       <c r="C285" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -17666,7 +17671,7 @@
         <v>204</v>
       </c>
       <c r="C286" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -17689,7 +17694,7 @@
         <v>204</v>
       </c>
       <c r="C287" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -17712,7 +17717,7 @@
         <v>204</v>
       </c>
       <c r="C288" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -17735,7 +17740,7 @@
         <v>204</v>
       </c>
       <c r="C289" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -17758,7 +17763,7 @@
         <v>204</v>
       </c>
       <c r="C290" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -17781,7 +17786,7 @@
         <v>204</v>
       </c>
       <c r="C291" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -17801,10 +17806,10 @@
         <v>78</v>
       </c>
       <c r="B292" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C292" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -17824,10 +17829,10 @@
         <v>78</v>
       </c>
       <c r="B293" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C293" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -17850,13 +17855,13 @@
         <v>205</v>
       </c>
       <c r="C294" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -17873,10 +17878,10 @@
         <v>205</v>
       </c>
       <c r="C295" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -17896,13 +17901,13 @@
         <v>205</v>
       </c>
       <c r="C296" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D296">
         <v>1</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -17919,16 +17924,16 @@
         <v>205</v>
       </c>
       <c r="C297" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -17942,13 +17947,13 @@
         <v>205</v>
       </c>
       <c r="C298" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D298">
         <v>1</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -17965,7 +17970,7 @@
         <v>205</v>
       </c>
       <c r="C299" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -17988,13 +17993,13 @@
         <v>205</v>
       </c>
       <c r="C300" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -18011,10 +18016,10 @@
         <v>205</v>
       </c>
       <c r="C301" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -18034,10 +18039,10 @@
         <v>205</v>
       </c>
       <c r="C302" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -18057,13 +18062,13 @@
         <v>205</v>
       </c>
       <c r="C303" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -18080,10 +18085,10 @@
         <v>205</v>
       </c>
       <c r="C304" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -18103,7 +18108,7 @@
         <v>205</v>
       </c>
       <c r="C305" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -18126,10 +18131,10 @@
         <v>205</v>
       </c>
       <c r="C306" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -18149,7 +18154,7 @@
         <v>205</v>
       </c>
       <c r="C307" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -18172,7 +18177,7 @@
         <v>205</v>
       </c>
       <c r="C308" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -18195,7 +18200,7 @@
         <v>205</v>
       </c>
       <c r="C309" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -18218,7 +18223,7 @@
         <v>205</v>
       </c>
       <c r="C310" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -18241,7 +18246,7 @@
         <v>205</v>
       </c>
       <c r="C311" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -18264,7 +18269,7 @@
         <v>205</v>
       </c>
       <c r="C312" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -18287,7 +18292,7 @@
         <v>205</v>
       </c>
       <c r="C313" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -18310,7 +18315,7 @@
         <v>205</v>
       </c>
       <c r="C314" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -18333,7 +18338,7 @@
         <v>205</v>
       </c>
       <c r="C315" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -18356,7 +18361,7 @@
         <v>205</v>
       </c>
       <c r="C316" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -18379,7 +18384,7 @@
         <v>205</v>
       </c>
       <c r="C317" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -18402,7 +18407,7 @@
         <v>205</v>
       </c>
       <c r="C318" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -18425,7 +18430,7 @@
         <v>205</v>
       </c>
       <c r="C319" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -18448,7 +18453,7 @@
         <v>205</v>
       </c>
       <c r="C320" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -18468,10 +18473,10 @@
         <v>78</v>
       </c>
       <c r="B321" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C321" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -18491,10 +18496,10 @@
         <v>78</v>
       </c>
       <c r="B322" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C322" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -18517,7 +18522,7 @@
         <v>208</v>
       </c>
       <c r="C323" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -18540,7 +18545,7 @@
         <v>208</v>
       </c>
       <c r="C324" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -18563,7 +18568,7 @@
         <v>208</v>
       </c>
       <c r="C325" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -18586,7 +18591,7 @@
         <v>208</v>
       </c>
       <c r="C326" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -18609,7 +18614,7 @@
         <v>208</v>
       </c>
       <c r="C327" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -18632,7 +18637,7 @@
         <v>208</v>
       </c>
       <c r="C328" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -18655,7 +18660,7 @@
         <v>208</v>
       </c>
       <c r="C329" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -18678,7 +18683,7 @@
         <v>208</v>
       </c>
       <c r="C330" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -18701,7 +18706,7 @@
         <v>208</v>
       </c>
       <c r="C331" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -18724,7 +18729,7 @@
         <v>208</v>
       </c>
       <c r="C332" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -18747,7 +18752,7 @@
         <v>208</v>
       </c>
       <c r="C333" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -18770,7 +18775,7 @@
         <v>208</v>
       </c>
       <c r="C334" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -18793,7 +18798,7 @@
         <v>208</v>
       </c>
       <c r="C335" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -18816,7 +18821,7 @@
         <v>208</v>
       </c>
       <c r="C336" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -18839,7 +18844,7 @@
         <v>208</v>
       </c>
       <c r="C337" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -18862,7 +18867,7 @@
         <v>208</v>
       </c>
       <c r="C338" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -18885,7 +18890,7 @@
         <v>208</v>
       </c>
       <c r="C339" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -18908,7 +18913,7 @@
         <v>208</v>
       </c>
       <c r="C340" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -18931,7 +18936,7 @@
         <v>208</v>
       </c>
       <c r="C341" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -18954,7 +18959,7 @@
         <v>208</v>
       </c>
       <c r="C342" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -18977,7 +18982,7 @@
         <v>208</v>
       </c>
       <c r="C343" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -19000,7 +19005,7 @@
         <v>208</v>
       </c>
       <c r="C344" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -19023,7 +19028,7 @@
         <v>208</v>
       </c>
       <c r="C345" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -19046,7 +19051,7 @@
         <v>208</v>
       </c>
       <c r="C346" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -19069,7 +19074,7 @@
         <v>208</v>
       </c>
       <c r="C347" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -19092,7 +19097,7 @@
         <v>208</v>
       </c>
       <c r="C348" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -19115,7 +19120,7 @@
         <v>208</v>
       </c>
       <c r="C349" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -19132,13 +19137,13 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B350" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C350" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -19155,13 +19160,13 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B351" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C351" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -19184,7 +19189,7 @@
         <v>213</v>
       </c>
       <c r="C352" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -19207,7 +19212,7 @@
         <v>213</v>
       </c>
       <c r="C353" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -19230,7 +19235,7 @@
         <v>213</v>
       </c>
       <c r="C354" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -19253,7 +19258,7 @@
         <v>213</v>
       </c>
       <c r="C355" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -19276,7 +19281,7 @@
         <v>213</v>
       </c>
       <c r="C356" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -19299,7 +19304,7 @@
         <v>213</v>
       </c>
       <c r="C357" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -19322,7 +19327,7 @@
         <v>213</v>
       </c>
       <c r="C358" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -19345,7 +19350,7 @@
         <v>213</v>
       </c>
       <c r="C359" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -19368,7 +19373,7 @@
         <v>213</v>
       </c>
       <c r="C360" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -19391,7 +19396,7 @@
         <v>213</v>
       </c>
       <c r="C361" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -19414,7 +19419,7 @@
         <v>213</v>
       </c>
       <c r="C362" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -19437,7 +19442,7 @@
         <v>213</v>
       </c>
       <c r="C363" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -19460,7 +19465,7 @@
         <v>213</v>
       </c>
       <c r="C364" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -19483,7 +19488,7 @@
         <v>213</v>
       </c>
       <c r="C365" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -19506,7 +19511,7 @@
         <v>213</v>
       </c>
       <c r="C366" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -19529,7 +19534,7 @@
         <v>213</v>
       </c>
       <c r="C367" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -19552,7 +19557,7 @@
         <v>213</v>
       </c>
       <c r="C368" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -19575,7 +19580,7 @@
         <v>213</v>
       </c>
       <c r="C369" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -19598,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="C370" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -19621,7 +19626,7 @@
         <v>213</v>
       </c>
       <c r="C371" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -19644,7 +19649,7 @@
         <v>213</v>
       </c>
       <c r="C372" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -19667,7 +19672,7 @@
         <v>213</v>
       </c>
       <c r="C373" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -19690,7 +19695,7 @@
         <v>213</v>
       </c>
       <c r="C374" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -19713,7 +19718,7 @@
         <v>213</v>
       </c>
       <c r="C375" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -19736,7 +19741,7 @@
         <v>213</v>
       </c>
       <c r="C376" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -19759,7 +19764,7 @@
         <v>213</v>
       </c>
       <c r="C377" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -19782,7 +19787,7 @@
         <v>213</v>
       </c>
       <c r="C378" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -19802,10 +19807,10 @@
         <v>207</v>
       </c>
       <c r="B379" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C379" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -19825,10 +19830,10 @@
         <v>207</v>
       </c>
       <c r="B380" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C380" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -19851,7 +19856,7 @@
         <v>214</v>
       </c>
       <c r="C381" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -19874,7 +19879,7 @@
         <v>214</v>
       </c>
       <c r="C382" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -19897,7 +19902,7 @@
         <v>214</v>
       </c>
       <c r="C383" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -19920,7 +19925,7 @@
         <v>214</v>
       </c>
       <c r="C384" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -19943,7 +19948,7 @@
         <v>214</v>
       </c>
       <c r="C385" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -19966,7 +19971,7 @@
         <v>214</v>
       </c>
       <c r="C386" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -19989,7 +19994,7 @@
         <v>214</v>
       </c>
       <c r="C387" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -20012,7 +20017,7 @@
         <v>214</v>
       </c>
       <c r="C388" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -20035,7 +20040,7 @@
         <v>214</v>
       </c>
       <c r="C389" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -20058,7 +20063,7 @@
         <v>214</v>
       </c>
       <c r="C390" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -20081,7 +20086,7 @@
         <v>214</v>
       </c>
       <c r="C391" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -20104,7 +20109,7 @@
         <v>214</v>
       </c>
       <c r="C392" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -20127,7 +20132,7 @@
         <v>214</v>
       </c>
       <c r="C393" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -20150,7 +20155,7 @@
         <v>214</v>
       </c>
       <c r="C394" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -20173,7 +20178,7 @@
         <v>214</v>
       </c>
       <c r="C395" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -20196,7 +20201,7 @@
         <v>214</v>
       </c>
       <c r="C396" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -20219,7 +20224,7 @@
         <v>214</v>
       </c>
       <c r="C397" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -20242,7 +20247,7 @@
         <v>214</v>
       </c>
       <c r="C398" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -20265,7 +20270,7 @@
         <v>214</v>
       </c>
       <c r="C399" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -20288,7 +20293,7 @@
         <v>214</v>
       </c>
       <c r="C400" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -20311,7 +20316,7 @@
         <v>214</v>
       </c>
       <c r="C401" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -20334,7 +20339,7 @@
         <v>214</v>
       </c>
       <c r="C402" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -20357,7 +20362,7 @@
         <v>214</v>
       </c>
       <c r="C403" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -20380,7 +20385,7 @@
         <v>214</v>
       </c>
       <c r="C404" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -20403,7 +20408,7 @@
         <v>214</v>
       </c>
       <c r="C405" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -20426,7 +20431,7 @@
         <v>214</v>
       </c>
       <c r="C406" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -20449,7 +20454,7 @@
         <v>214</v>
       </c>
       <c r="C407" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -20469,10 +20474,10 @@
         <v>207</v>
       </c>
       <c r="B408" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C408" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -20492,10 +20497,10 @@
         <v>207</v>
       </c>
       <c r="B409" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C409" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -20518,7 +20523,7 @@
         <v>212</v>
       </c>
       <c r="C410" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -20541,7 +20546,7 @@
         <v>212</v>
       </c>
       <c r="C411" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -20564,7 +20569,7 @@
         <v>212</v>
       </c>
       <c r="C412" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -20587,7 +20592,7 @@
         <v>212</v>
       </c>
       <c r="C413" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -20610,7 +20615,7 @@
         <v>212</v>
       </c>
       <c r="C414" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -20633,7 +20638,7 @@
         <v>212</v>
       </c>
       <c r="C415" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -20656,7 +20661,7 @@
         <v>212</v>
       </c>
       <c r="C416" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -20679,7 +20684,7 @@
         <v>212</v>
       </c>
       <c r="C417" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -20702,7 +20707,7 @@
         <v>212</v>
       </c>
       <c r="C418" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -20725,7 +20730,7 @@
         <v>212</v>
       </c>
       <c r="C419" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D419">
         <v>0</v>
@@ -20748,7 +20753,7 @@
         <v>212</v>
       </c>
       <c r="C420" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -20771,7 +20776,7 @@
         <v>212</v>
       </c>
       <c r="C421" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -20794,7 +20799,7 @@
         <v>212</v>
       </c>
       <c r="C422" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -20817,7 +20822,7 @@
         <v>212</v>
       </c>
       <c r="C423" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -20840,7 +20845,7 @@
         <v>212</v>
       </c>
       <c r="C424" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -20863,7 +20868,7 @@
         <v>212</v>
       </c>
       <c r="C425" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -20886,7 +20891,7 @@
         <v>212</v>
       </c>
       <c r="C426" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -20909,7 +20914,7 @@
         <v>212</v>
       </c>
       <c r="C427" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -20932,7 +20937,7 @@
         <v>212</v>
       </c>
       <c r="C428" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -20955,7 +20960,7 @@
         <v>212</v>
       </c>
       <c r="C429" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -20978,7 +20983,7 @@
         <v>212</v>
       </c>
       <c r="C430" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -21001,7 +21006,7 @@
         <v>212</v>
       </c>
       <c r="C431" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -21024,7 +21029,7 @@
         <v>212</v>
       </c>
       <c r="C432" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -21047,7 +21052,7 @@
         <v>212</v>
       </c>
       <c r="C433" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -21070,7 +21075,7 @@
         <v>212</v>
       </c>
       <c r="C434" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -21093,7 +21098,7 @@
         <v>212</v>
       </c>
       <c r="C435" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -21116,7 +21121,7 @@
         <v>212</v>
       </c>
       <c r="C436" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -21136,10 +21141,10 @@
         <v>207</v>
       </c>
       <c r="B437" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C437" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -21159,10 +21164,10 @@
         <v>207</v>
       </c>
       <c r="B438" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C438" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -21185,7 +21190,7 @@
         <v>204</v>
       </c>
       <c r="C439" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -21208,7 +21213,7 @@
         <v>204</v>
       </c>
       <c r="C440" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -21231,7 +21236,7 @@
         <v>204</v>
       </c>
       <c r="C441" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -21254,7 +21259,7 @@
         <v>204</v>
       </c>
       <c r="C442" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -21277,7 +21282,7 @@
         <v>204</v>
       </c>
       <c r="C443" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -21300,7 +21305,7 @@
         <v>204</v>
       </c>
       <c r="C444" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -21323,7 +21328,7 @@
         <v>204</v>
       </c>
       <c r="C445" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -21346,7 +21351,7 @@
         <v>204</v>
       </c>
       <c r="C446" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -21369,7 +21374,7 @@
         <v>204</v>
       </c>
       <c r="C447" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -21392,7 +21397,7 @@
         <v>204</v>
       </c>
       <c r="C448" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -21415,7 +21420,7 @@
         <v>204</v>
       </c>
       <c r="C449" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -21438,7 +21443,7 @@
         <v>204</v>
       </c>
       <c r="C450" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -21461,7 +21466,7 @@
         <v>204</v>
       </c>
       <c r="C451" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -21484,7 +21489,7 @@
         <v>204</v>
       </c>
       <c r="C452" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -21507,7 +21512,7 @@
         <v>204</v>
       </c>
       <c r="C453" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -21530,7 +21535,7 @@
         <v>204</v>
       </c>
       <c r="C454" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -21553,7 +21558,7 @@
         <v>204</v>
       </c>
       <c r="C455" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -21576,7 +21581,7 @@
         <v>204</v>
       </c>
       <c r="C456" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -21599,7 +21604,7 @@
         <v>204</v>
       </c>
       <c r="C457" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -21622,7 +21627,7 @@
         <v>204</v>
       </c>
       <c r="C458" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -21645,7 +21650,7 @@
         <v>204</v>
       </c>
       <c r="C459" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -21668,7 +21673,7 @@
         <v>204</v>
       </c>
       <c r="C460" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -21691,7 +21696,7 @@
         <v>204</v>
       </c>
       <c r="C461" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -21714,7 +21719,7 @@
         <v>204</v>
       </c>
       <c r="C462" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -21737,7 +21742,7 @@
         <v>204</v>
       </c>
       <c r="C463" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -21760,7 +21765,7 @@
         <v>204</v>
       </c>
       <c r="C464" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -21783,7 +21788,7 @@
         <v>204</v>
       </c>
       <c r="C465" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -21803,10 +21808,10 @@
         <v>207</v>
       </c>
       <c r="B466" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C466" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -21826,10 +21831,10 @@
         <v>207</v>
       </c>
       <c r="B467" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C467" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -21852,7 +21857,7 @@
         <v>205</v>
       </c>
       <c r="C468" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -21875,7 +21880,7 @@
         <v>205</v>
       </c>
       <c r="C469" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -21898,7 +21903,7 @@
         <v>205</v>
       </c>
       <c r="C470" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -21921,7 +21926,7 @@
         <v>205</v>
       </c>
       <c r="C471" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -21944,7 +21949,7 @@
         <v>205</v>
       </c>
       <c r="C472" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -21967,7 +21972,7 @@
         <v>205</v>
       </c>
       <c r="C473" s="9">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -21990,7 +21995,7 @@
         <v>205</v>
       </c>
       <c r="C474" s="9">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -22013,7 +22018,7 @@
         <v>205</v>
       </c>
       <c r="C475" s="9">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -22036,7 +22041,7 @@
         <v>205</v>
       </c>
       <c r="C476" s="9">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -22059,7 +22064,7 @@
         <v>205</v>
       </c>
       <c r="C477" s="9">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -22082,7 +22087,7 @@
         <v>205</v>
       </c>
       <c r="C478" s="9">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -22105,7 +22110,7 @@
         <v>205</v>
       </c>
       <c r="C479" s="9">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -22128,7 +22133,7 @@
         <v>205</v>
       </c>
       <c r="C480" s="9">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -22151,7 +22156,7 @@
         <v>205</v>
       </c>
       <c r="C481" s="9">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -22174,7 +22179,7 @@
         <v>205</v>
       </c>
       <c r="C482" s="9">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -22197,7 +22202,7 @@
         <v>205</v>
       </c>
       <c r="C483" s="9">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -22220,7 +22225,7 @@
         <v>205</v>
       </c>
       <c r="C484" s="9">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -22243,7 +22248,7 @@
         <v>205</v>
       </c>
       <c r="C485" s="9">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -22266,7 +22271,7 @@
         <v>205</v>
       </c>
       <c r="C486" s="9">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -22289,7 +22294,7 @@
         <v>205</v>
       </c>
       <c r="C487" s="9">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -22312,7 +22317,7 @@
         <v>205</v>
       </c>
       <c r="C488" s="9">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -22335,7 +22340,7 @@
         <v>205</v>
       </c>
       <c r="C489" s="9">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -22358,7 +22363,7 @@
         <v>205</v>
       </c>
       <c r="C490" s="9">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -22381,7 +22386,7 @@
         <v>205</v>
       </c>
       <c r="C491" s="9">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -22404,7 +22409,7 @@
         <v>205</v>
       </c>
       <c r="C492" s="9">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -22427,7 +22432,7 @@
         <v>205</v>
       </c>
       <c r="C493" s="9">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -22450,7 +22455,7 @@
         <v>205</v>
       </c>
       <c r="C494" s="9">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -22470,10 +22475,10 @@
         <v>207</v>
       </c>
       <c r="B495" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C495" s="9">
-        <v>44086</v>
+        <v>44113</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -22493,10 +22498,10 @@
         <v>207</v>
       </c>
       <c r="B496" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C496" s="9">
-        <v>44087</v>
+        <v>44114</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -22519,7 +22524,7 @@
         <v>208</v>
       </c>
       <c r="C497" s="9">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -22542,7 +22547,7 @@
         <v>208</v>
       </c>
       <c r="C498" s="9">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -22565,13 +22570,13 @@
         <v>208</v>
       </c>
       <c r="C499" s="9">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="D499">
         <v>0</v>
       </c>
       <c r="E499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -22588,7 +22593,7 @@
         <v>208</v>
       </c>
       <c r="C500" s="9">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -22611,7 +22616,7 @@
         <v>208</v>
       </c>
       <c r="C501" s="9">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -22634,7 +22639,7 @@
         <v>208</v>
       </c>
       <c r="C502" s="9">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -23133,6 +23138,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G523" xr:uid="{9802C739-794C-9946-95EC-0D03B9790AC8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>